--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/07_ Cursos/NR-2760/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{3328D4FE-2B22-46B7-9077-AC3B5C762C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BF3F04-2FF3-4F34-81F5-0CA5B15C91CC}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{3328D4FE-2B22-46B7-9077-AC3B5C762C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED1809E-D8E0-4C19-8DBA-0D460D2CD076}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7ACA16B2-165D-4D10-A8F8-E2B927DC140C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7ACA16B2-165D-4D10-A8F8-E2B927DC140C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="24">
   <si>
     <t>Agriculture</t>
   </si>
@@ -81,13 +83,40 @@
   </si>
   <si>
     <t>site</t>
+  </si>
+  <si>
+    <t>Hemiptera</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Blattodea</t>
+  </si>
+  <si>
+    <t>Neuroptera</t>
+  </si>
+  <si>
+    <t>sample_1</t>
+  </si>
+  <si>
+    <t>sample_2</t>
+  </si>
+  <si>
+    <t>sample_3</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +129,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,202 +474,1011 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2FE4F0-2417-47DF-9084-DA6A8A2FBED3}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>11.333333333333334</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>34.333333333333336</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3.6666666666666665</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>5.5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>5.333333333333333</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B946E61-5FCB-4695-AA6D-1727671318DE}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944822EA-381F-49B4-BC37-D05D96AA2A8A}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+    <sortCondition ref="A1:A86"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>